--- a/bleu_tempo_simulator.xlsx
+++ b/bleu_tempo_simulator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myRepos\bleu_tempo_simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369F96E0-6344-4CDD-827B-1B843CC8D32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB877943-AA30-448F-9AE7-6452F8CBB101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{A33B1210-237B-4AE7-9996-432F51150F17}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{A33B1210-237B-4AE7-9996-432F51150F17}"/>
   </bookViews>
   <sheets>
     <sheet name="AUCUN CHANGEMENT" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="589">
   <si>
     <t>Mois</t>
   </si>
@@ -2042,7 +2042,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2127,6 +2127,14 @@
     <xf numFmtId="9" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2141,21 +2149,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2475,10 +2468,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2513,7 +2506,7 @@
       <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="32">
         <v>0.246</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -2539,7 +2532,7 @@
       <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="32">
         <v>0.18279999999999999</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -2591,26 +2584,26 @@
       <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="54" t="s">
+      <c r="G5" s="59"/>
+      <c r="H5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="55"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="59"/>
     </row>
     <row r="6" spans="1:21" s="12" customFormat="1">
       <c r="A6" s="11" t="s">
@@ -3558,13 +3551,13 @@
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="60">
+      <c r="B18" s="4">
         <v>111</v>
       </c>
-      <c r="C18" s="61">
+      <c r="C18" s="54">
         <v>41</v>
       </c>
       <c r="D18" s="21">
@@ -3715,11 +3708,11 @@
         <f>SUM(E7:E18)</f>
         <v>385.09919999999994</v>
       </c>
-      <c r="F20" s="57">
+      <c r="F20" s="61">
         <f>F19+G19</f>
         <v>389.30880000000002</v>
       </c>
-      <c r="G20" s="58"/>
+      <c r="G20" s="62"/>
       <c r="H20" s="18"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -3741,6 +3734,11 @@
     <row r="21" spans="1:21">
       <c r="F21" s="36"/>
     </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="56" t="s">
+        <v>588</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F5:G5"/>
@@ -3755,14 +3753,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7631D90-F682-455B-AD62-DE7A33EA27EA}">
-  <dimension ref="A2:U21"/>
+  <dimension ref="A2:U25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3805,32 +3811,32 @@
       <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="54" t="s">
+      <c r="G5" s="59"/>
+      <c r="H5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="55"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="59"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -3895,7 +3901,7 @@
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="63">
+      <c r="B7">
         <f>'AUCUN CHANGEMENT'!B7</f>
         <v>100</v>
       </c>
@@ -3935,6 +3941,7 @@
         <v>2.9567999999999999</v>
       </c>
       <c r="L7" s="45">
+        <f>'AUCUN CHANGEMENT'!L7</f>
         <v>2</v>
       </c>
       <c r="M7" s="42">
@@ -3954,6 +3961,7 @@
         <v>0.2492</v>
       </c>
       <c r="Q7" s="47">
+        <f>'AUCUN CHANGEMENT'!Q7</f>
         <v>0</v>
       </c>
       <c r="R7" s="41">
@@ -3977,7 +3985,7 @@
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="63">
+      <c r="B8">
         <f>'AUCUN CHANGEMENT'!B8</f>
         <v>101</v>
       </c>
@@ -4017,6 +4025,7 @@
         <v>1.7459200000000001</v>
       </c>
       <c r="L8" s="45">
+        <f>'AUCUN CHANGEMENT'!L8</f>
         <v>10</v>
       </c>
       <c r="M8" s="42">
@@ -4036,6 +4045,7 @@
         <v>1.2875333333333334</v>
       </c>
       <c r="Q8" s="47">
+        <f>'AUCUN CHANGEMENT'!Q8</f>
         <v>4</v>
       </c>
       <c r="R8" s="41">
@@ -4059,7 +4069,7 @@
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="63">
+      <c r="B9">
         <f>'AUCUN CHANGEMENT'!B9</f>
         <v>102</v>
       </c>
@@ -4099,6 +4109,7 @@
         <v>1.8022400000000001</v>
       </c>
       <c r="L9" s="45">
+        <f>'AUCUN CHANGEMENT'!L9</f>
         <v>3</v>
       </c>
       <c r="M9" s="42">
@@ -4118,6 +4129,7 @@
         <v>0.39872000000000002</v>
       </c>
       <c r="Q9" s="47">
+        <f>'AUCUN CHANGEMENT'!Q9</f>
         <v>11</v>
       </c>
       <c r="R9" s="41">
@@ -4141,7 +4153,7 @@
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="63">
+      <c r="B10">
         <f>'AUCUN CHANGEMENT'!B10</f>
         <v>103</v>
       </c>
@@ -4181,6 +4193,7 @@
         <v>1.27776</v>
       </c>
       <c r="L10" s="45">
+        <f>'AUCUN CHANGEMENT'!L10</f>
         <v>14</v>
       </c>
       <c r="M10" s="42">
@@ -4200,6 +4213,7 @@
         <v>1.9188400000000001</v>
       </c>
       <c r="Q10" s="47">
+        <f>'AUCUN CHANGEMENT'!Q10</f>
         <v>5</v>
       </c>
       <c r="R10" s="41">
@@ -4223,7 +4237,7 @@
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="63">
+      <c r="B11">
         <f>'AUCUN CHANGEMENT'!B11</f>
         <v>104</v>
       </c>
@@ -4263,6 +4277,7 @@
         <v>2.992</v>
       </c>
       <c r="L11" s="45">
+        <f>'AUCUN CHANGEMENT'!L11</f>
         <v>3</v>
       </c>
       <c r="M11" s="42">
@@ -4282,6 +4297,7 @@
         <v>0.42364000000000002</v>
       </c>
       <c r="Q11" s="47">
+        <f>'AUCUN CHANGEMENT'!Q11</f>
         <v>2</v>
       </c>
       <c r="R11" s="41">
@@ -4305,7 +4321,7 @@
       <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="63">
+      <c r="B12">
         <f>'AUCUN CHANGEMENT'!B12</f>
         <v>105</v>
       </c>
@@ -4345,6 +4361,7 @@
         <v>2.8335999999999997</v>
       </c>
       <c r="L12" s="45">
+        <f>'AUCUN CHANGEMENT'!L12</f>
         <v>7</v>
       </c>
       <c r="M12" s="42">
@@ -4364,6 +4381,7 @@
         <v>1.0175666666666665</v>
       </c>
       <c r="Q12" s="47">
+        <f>'AUCUN CHANGEMENT'!Q12</f>
         <v>0</v>
       </c>
       <c r="R12" s="41">
@@ -4387,7 +4405,7 @@
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="63">
+      <c r="B13">
         <f>'AUCUN CHANGEMENT'!B13</f>
         <v>106</v>
       </c>
@@ -4427,6 +4445,7 @@
         <v>3.8016000000000001</v>
       </c>
       <c r="L13" s="45">
+        <f>'AUCUN CHANGEMENT'!L13</f>
         <v>0</v>
       </c>
       <c r="M13" s="42">
@@ -4446,6 +4465,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="47">
+        <f>'AUCUN CHANGEMENT'!Q13</f>
         <v>0</v>
       </c>
       <c r="R13" s="41">
@@ -4469,7 +4489,7 @@
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="63">
+      <c r="B14">
         <f>'AUCUN CHANGEMENT'!B14</f>
         <v>107</v>
       </c>
@@ -4509,6 +4529,7 @@
         <v>3.3862400000000004</v>
       </c>
       <c r="L14" s="45">
+        <f>'AUCUN CHANGEMENT'!L14</f>
         <v>4</v>
       </c>
       <c r="M14" s="42">
@@ -4528,6 +4549,7 @@
         <v>0.61469333333333342</v>
       </c>
       <c r="Q14" s="47">
+        <f>'AUCUN CHANGEMENT'!Q14</f>
         <v>0</v>
       </c>
       <c r="R14" s="41">
@@ -4551,7 +4573,7 @@
       <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="63">
+      <c r="B15">
         <f>'AUCUN CHANGEMENT'!B15</f>
         <v>108</v>
       </c>
@@ -4591,6 +4613,7 @@
         <v>4.0128000000000004</v>
       </c>
       <c r="L15" s="45">
+        <f>'AUCUN CHANGEMENT'!L15</f>
         <v>0</v>
       </c>
       <c r="M15" s="42">
@@ -4610,6 +4633,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="47">
+        <f>'AUCUN CHANGEMENT'!Q15</f>
         <v>0</v>
       </c>
       <c r="R15" s="41">
@@ -4633,7 +4657,7 @@
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="63">
+      <c r="B16">
         <f>'AUCUN CHANGEMENT'!B16</f>
         <v>109</v>
       </c>
@@ -4673,6 +4697,7 @@
         <v>4.1184000000000003</v>
       </c>
       <c r="L16" s="45">
+        <f>'AUCUN CHANGEMENT'!L16</f>
         <v>0</v>
       </c>
       <c r="M16" s="42">
@@ -4692,6 +4717,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="47">
+        <f>'AUCUN CHANGEMENT'!Q16</f>
         <v>0</v>
       </c>
       <c r="R16" s="41">
@@ -4715,7 +4741,7 @@
       <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="63">
+      <c r="B17">
         <f>'AUCUN CHANGEMENT'!B17</f>
         <v>110</v>
       </c>
@@ -4755,6 +4781,7 @@
         <v>4.2240000000000002</v>
       </c>
       <c r="L17" s="45">
+        <f>'AUCUN CHANGEMENT'!L17</f>
         <v>0</v>
       </c>
       <c r="M17" s="42">
@@ -4774,6 +4801,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="47">
+        <f>'AUCUN CHANGEMENT'!Q17</f>
         <v>0</v>
       </c>
       <c r="R17" s="41">
@@ -4801,7 +4829,7 @@
         <f>'AUCUN CHANGEMENT'!B18</f>
         <v>111</v>
       </c>
-      <c r="C18" s="64">
+      <c r="C18" s="54">
         <f>'AUCUN CHANGEMENT'!C18</f>
         <v>41</v>
       </c>
@@ -4836,7 +4864,8 @@
         <f t="shared" si="4"/>
         <v>4.3296000000000001</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="45">
+        <f>'AUCUN CHANGEMENT'!L18</f>
         <v>0</v>
       </c>
       <c r="M18" s="42">
@@ -4856,6 +4885,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="48">
+        <f>'AUCUN CHANGEMENT'!Q18</f>
         <v>0</v>
       </c>
       <c r="R18" s="41">
@@ -4953,11 +4983,11 @@
         <f>SUM(E7:E18)</f>
         <v>385.09919999999994</v>
       </c>
-      <c r="F20" s="57">
+      <c r="F20" s="61">
         <f>F19+G19</f>
         <v>389.30880000000002</v>
       </c>
-      <c r="G20" s="58"/>
+      <c r="G20" s="62"/>
       <c r="H20" s="18"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -4979,6 +5009,11 @@
     <row r="21" spans="1:21">
       <c r="F21" s="36"/>
     </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="56" t="s">
+        <v>588</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F5:G5"/>
@@ -4993,24 +5028,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3BEEA7-EFCB-487E-A2F2-6A25893FA508}">
   <dimension ref="A3:A679"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="1:1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="56" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="57" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="55" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5018,17 +5053,17 @@
       <c r="A8" s="36"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="55" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="55" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="55" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5036,7 +5071,7 @@
       <c r="A12" s="36"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="55" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5044,12 +5079,12 @@
       <c r="A14" s="36"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="55" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="55" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5057,42 +5092,42 @@
       <c r="A17" s="36"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="55" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="55" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="55" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="55" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="55" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="55" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="55" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="55" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5100,32 +5135,32 @@
       <c r="A26" s="36"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="55" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="55" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="55" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="55" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="55" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="55" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5133,22 +5168,22 @@
       <c r="A33" s="36"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="55" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="55" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="55" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="55" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5156,27 +5191,27 @@
       <c r="A38" s="36"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="55" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="55" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="55" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="55" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="55" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5184,17 +5219,17 @@
       <c r="A44" s="36"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="55" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="65" t="s">
+      <c r="A46" s="55" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="65" t="s">
+      <c r="A47" s="55" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5202,27 +5237,27 @@
       <c r="A48" s="36"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="65" t="s">
+      <c r="A49" s="55" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="65" t="s">
+      <c r="A50" s="55" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="65" t="s">
+      <c r="A51" s="55" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="65" t="s">
+      <c r="A52" s="55" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="65" t="s">
+      <c r="A53" s="55" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5230,52 +5265,52 @@
       <c r="A54" s="36"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="65" t="s">
+      <c r="A55" s="55" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="65" t="s">
+      <c r="A56" s="55" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="65" t="s">
+      <c r="A57" s="55" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="65" t="s">
+      <c r="A58" s="55" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="65" t="s">
+      <c r="A59" s="55" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="65" t="s">
+      <c r="A60" s="55" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="65" t="s">
+      <c r="A61" s="55" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="65" t="s">
+      <c r="A62" s="55" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="65" t="s">
+      <c r="A63" s="55" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="65" t="s">
+      <c r="A64" s="55" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5283,32 +5318,32 @@
       <c r="A65" s="36"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="65" t="s">
+      <c r="A66" s="55" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="65" t="s">
+      <c r="A67" s="55" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="65" t="s">
+      <c r="A68" s="55" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="65" t="s">
+      <c r="A69" s="55" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="65" t="s">
+      <c r="A70" s="55" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="65" t="s">
+      <c r="A71" s="55" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5316,12 +5351,12 @@
       <c r="A72" s="36"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="65" t="s">
+      <c r="A73" s="55" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="65" t="s">
+      <c r="A74" s="55" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5329,7 +5364,7 @@
       <c r="A75" s="36"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="65" t="s">
+      <c r="A76" s="55" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5337,7 +5372,7 @@
       <c r="A77" s="36"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="65" t="s">
+      <c r="A78" s="55" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5345,7 +5380,7 @@
       <c r="A79" s="36"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="65" t="s">
+      <c r="A80" s="55" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5353,12 +5388,12 @@
       <c r="A81" s="36"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="65" t="s">
+      <c r="A82" s="55" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="65" t="s">
+      <c r="A83" s="55" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5366,17 +5401,17 @@
       <c r="A84" s="36"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="65" t="s">
+      <c r="A85" s="55" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="65" t="s">
+      <c r="A86" s="55" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="65" t="s">
+      <c r="A87" s="55" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5384,22 +5419,22 @@
       <c r="A88" s="36"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="65" t="s">
+      <c r="A89" s="55" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="65" t="s">
+      <c r="A90" s="55" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="65" t="s">
+      <c r="A91" s="55" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="65" t="s">
+      <c r="A92" s="55" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5407,12 +5442,12 @@
       <c r="A93" s="36"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="65" t="s">
+      <c r="A94" s="55" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="65" t="s">
+      <c r="A95" s="55" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5420,32 +5455,32 @@
       <c r="A96" s="36"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="65" t="s">
+      <c r="A97" s="55" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="65" t="s">
+      <c r="A98" s="55" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="65" t="s">
+      <c r="A99" s="55" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="65" t="s">
+      <c r="A100" s="55" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="65" t="s">
+      <c r="A101" s="55" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="65" t="s">
+      <c r="A102" s="55" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5453,17 +5488,17 @@
       <c r="A103" s="36"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="65" t="s">
+      <c r="A104" s="55" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="65" t="s">
+      <c r="A105" s="55" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="65" t="s">
+      <c r="A106" s="55" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5471,42 +5506,42 @@
       <c r="A107" s="36"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="65" t="s">
+      <c r="A108" s="55" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="65" t="s">
+      <c r="A109" s="55" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="65" t="s">
+      <c r="A110" s="55" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="65" t="s">
+      <c r="A111" s="55" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="65" t="s">
+      <c r="A112" s="55" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="65" t="s">
+      <c r="A113" s="55" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="65" t="s">
+      <c r="A114" s="55" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="65" t="s">
+      <c r="A115" s="55" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5514,7 +5549,7 @@
       <c r="A116" s="36"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="65" t="s">
+      <c r="A117" s="55" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5522,17 +5557,17 @@
       <c r="A118" s="36"/>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="65" t="s">
+      <c r="A119" s="55" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="65" t="s">
+      <c r="A120" s="55" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="65" t="s">
+      <c r="A121" s="55" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5540,22 +5575,22 @@
       <c r="A122" s="36"/>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="65" t="s">
+      <c r="A123" s="55" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="65" t="s">
+      <c r="A124" s="55" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="65" t="s">
+      <c r="A125" s="55" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="65" t="s">
+      <c r="A126" s="55" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5563,52 +5598,52 @@
       <c r="A127" s="36"/>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="65" t="s">
+      <c r="A128" s="55" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="65" t="s">
+      <c r="A129" s="55" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="65" t="s">
+      <c r="A130" s="55" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="65" t="s">
+      <c r="A131" s="55" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="65" t="s">
+      <c r="A132" s="55" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="65" t="s">
+      <c r="A133" s="55" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="65" t="s">
+      <c r="A134" s="55" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="65" t="s">
+      <c r="A135" s="55" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="65" t="s">
+      <c r="A136" s="55" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="65" t="s">
+      <c r="A137" s="55" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5616,62 +5651,62 @@
       <c r="A138" s="36"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="65" t="s">
+      <c r="A139" s="55" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="65" t="s">
+      <c r="A140" s="55" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="65" t="s">
+      <c r="A141" s="55" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="65" t="s">
+      <c r="A142" s="55" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="65" t="s">
+      <c r="A143" s="55" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="65" t="s">
+      <c r="A144" s="55" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="65" t="s">
+      <c r="A145" s="55" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="65" t="s">
+      <c r="A146" s="55" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="65" t="s">
+      <c r="A147" s="55" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="65" t="s">
+      <c r="A148" s="55" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="65" t="s">
+      <c r="A149" s="55" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="65" t="s">
+      <c r="A150" s="55" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5679,17 +5714,17 @@
       <c r="A151" s="36"/>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="65" t="s">
+      <c r="A152" s="55" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="65" t="s">
+      <c r="A153" s="55" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="65" t="s">
+      <c r="A154" s="55" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5697,12 +5732,12 @@
       <c r="A155" s="36"/>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="65" t="s">
+      <c r="A156" s="55" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="65" t="s">
+      <c r="A157" s="55" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5710,7 +5745,7 @@
       <c r="A158" s="36"/>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="65" t="s">
+      <c r="A159" s="55" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5718,37 +5753,37 @@
       <c r="A160" s="36"/>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="65" t="s">
+      <c r="A161" s="55" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="65" t="s">
+      <c r="A162" s="55" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="65" t="s">
+      <c r="A163" s="55" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="65" t="s">
+      <c r="A164" s="55" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="65" t="s">
+      <c r="A165" s="55" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="65" t="s">
+      <c r="A166" s="55" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="65" t="s">
+      <c r="A167" s="55" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5756,52 +5791,52 @@
       <c r="A168" s="36"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="65" t="s">
+      <c r="A169" s="55" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="65" t="s">
+      <c r="A170" s="55" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="65" t="s">
+      <c r="A171" s="55" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="65" t="s">
+      <c r="A172" s="55" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="65" t="s">
+      <c r="A173" s="55" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="65" t="s">
+      <c r="A174" s="55" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="65" t="s">
+      <c r="A175" s="55" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="65" t="s">
+      <c r="A176" s="55" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="65" t="s">
+      <c r="A177" s="55" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="65" t="s">
+      <c r="A178" s="55" t="s">
         <v>175</v>
       </c>
     </row>
@@ -5809,17 +5844,17 @@
       <c r="A179" s="36"/>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="65" t="s">
+      <c r="A180" s="55" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="65" t="s">
+      <c r="A181" s="55" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="65" t="s">
+      <c r="A182" s="55" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5827,7 +5862,7 @@
       <c r="A183" s="36"/>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="65" t="s">
+      <c r="A184" s="55" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5835,27 +5870,27 @@
       <c r="A185" s="36"/>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="65" t="s">
+      <c r="A186" s="55" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="65" t="s">
+      <c r="A187" s="55" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="65" t="s">
+      <c r="A188" s="55" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="65" t="s">
+      <c r="A189" s="55" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="65" t="s">
+      <c r="A190" s="55" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5863,37 +5898,37 @@
       <c r="A191" s="36"/>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="65" t="s">
+      <c r="A192" s="55" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="65" t="s">
+      <c r="A193" s="55" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="65" t="s">
+      <c r="A194" s="55" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="65" t="s">
+      <c r="A195" s="55" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="65" t="s">
+      <c r="A196" s="55" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="65" t="s">
+      <c r="A197" s="55" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="65" t="s">
+      <c r="A198" s="55" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5901,7 +5936,7 @@
       <c r="A199" s="36"/>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="65" t="s">
+      <c r="A200" s="55" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5909,37 +5944,37 @@
       <c r="A201" s="36"/>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="65" t="s">
+      <c r="A202" s="55" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="65" t="s">
+      <c r="A203" s="55" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="65" t="s">
+      <c r="A204" s="55" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="65" t="s">
+      <c r="A205" s="55" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="65" t="s">
+      <c r="A206" s="55" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="65" t="s">
+      <c r="A207" s="55" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="65" t="s">
+      <c r="A208" s="55" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5947,12 +5982,12 @@
       <c r="A209" s="36"/>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="65" t="s">
+      <c r="A210" s="55" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="65" t="s">
+      <c r="A211" s="55" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5960,7 +5995,7 @@
       <c r="A212" s="36"/>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="65" t="s">
+      <c r="A213" s="55" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5968,17 +6003,17 @@
       <c r="A214" s="36"/>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="65" t="s">
+      <c r="A215" s="55" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="65" t="s">
+      <c r="A216" s="55" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="65" t="s">
+      <c r="A217" s="55" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5986,12 +6021,12 @@
       <c r="A218" s="36"/>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="65" t="s">
+      <c r="A219" s="55" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="65" t="s">
+      <c r="A220" s="55" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5999,22 +6034,22 @@
       <c r="A221" s="36"/>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="65" t="s">
+      <c r="A222" s="55" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="65" t="s">
+      <c r="A223" s="55" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="65" t="s">
+      <c r="A224" s="55" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="65" t="s">
+      <c r="A225" s="55" t="s">
         <v>211</v>
       </c>
     </row>
@@ -6022,37 +6057,37 @@
       <c r="A226" s="36"/>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="65" t="s">
+      <c r="A227" s="55" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="65" t="s">
+      <c r="A228" s="55" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="65" t="s">
+      <c r="A229" s="55" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="65" t="s">
+      <c r="A230" s="55" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="65" t="s">
+      <c r="A231" s="55" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="65" t="s">
+      <c r="A232" s="55" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="65" t="s">
+      <c r="A233" s="55" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6060,22 +6095,22 @@
       <c r="A234" s="36"/>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="65" t="s">
+      <c r="A235" s="55" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="65" t="s">
+      <c r="A236" s="55" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="65" t="s">
+      <c r="A237" s="55" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="65" t="s">
+      <c r="A238" s="55" t="s">
         <v>222</v>
       </c>
     </row>
@@ -6083,47 +6118,47 @@
       <c r="A239" s="36"/>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="65" t="s">
+      <c r="A240" s="55" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="65" t="s">
+      <c r="A241" s="55" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="65" t="s">
+      <c r="A242" s="55" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="65" t="s">
+      <c r="A243" s="55" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="65" t="s">
+      <c r="A244" s="55" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="65" t="s">
+      <c r="A245" s="55" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="65" t="s">
+      <c r="A246" s="55" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="65" t="s">
+      <c r="A247" s="55" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="65" t="s">
+      <c r="A248" s="55" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6131,7 +6166,7 @@
       <c r="A249" s="36"/>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="65" t="s">
+      <c r="A250" s="55" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6139,22 +6174,22 @@
       <c r="A251" s="36"/>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="65" t="s">
+      <c r="A252" s="55" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="65" t="s">
+      <c r="A253" s="55" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="65" t="s">
+      <c r="A254" s="55" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="65" t="s">
+      <c r="A255" s="55" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6162,22 +6197,22 @@
       <c r="A256" s="36"/>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="65" t="s">
+      <c r="A257" s="55" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="65" t="s">
+      <c r="A258" s="55" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="65" t="s">
+      <c r="A259" s="55" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="65" t="s">
+      <c r="A260" s="55" t="s">
         <v>240</v>
       </c>
     </row>
@@ -6185,57 +6220,57 @@
       <c r="A261" s="36"/>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="65" t="s">
+      <c r="A262" s="55" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="65" t="s">
+      <c r="A263" s="55" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="65" t="s">
+      <c r="A264" s="55" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="65" t="s">
+      <c r="A265" s="55" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="65" t="s">
+      <c r="A266" s="55" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="65" t="s">
+      <c r="A267" s="55" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="65" t="s">
+      <c r="A268" s="55" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="65" t="s">
+      <c r="A269" s="55" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="65" t="s">
+      <c r="A270" s="55" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="65" t="s">
+      <c r="A271" s="55" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="65" t="s">
+      <c r="A272" s="55" t="s">
         <v>251</v>
       </c>
     </row>
@@ -6243,27 +6278,27 @@
       <c r="A273" s="36"/>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="65" t="s">
+      <c r="A274" s="55" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="65" t="s">
+      <c r="A275" s="55" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="65" t="s">
+      <c r="A276" s="55" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="65" t="s">
+      <c r="A277" s="55" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="65" t="s">
+      <c r="A278" s="55" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6271,62 +6306,62 @@
       <c r="A279" s="36"/>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="65" t="s">
+      <c r="A280" s="55" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="65" t="s">
+      <c r="A281" s="55" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="65" t="s">
+      <c r="A282" s="55" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="65" t="s">
+      <c r="A283" s="55" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="65" t="s">
+      <c r="A284" s="55" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="65" t="s">
+      <c r="A285" s="55" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="65" t="s">
+      <c r="A286" s="55" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="65" t="s">
+      <c r="A287" s="55" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="65" t="s">
+      <c r="A288" s="55" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="65" t="s">
+      <c r="A289" s="55" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="65" t="s">
+      <c r="A290" s="55" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="65" t="s">
+      <c r="A291" s="55" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6334,22 +6369,22 @@
       <c r="A292" s="36"/>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="65" t="s">
+      <c r="A293" s="55" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="65" t="s">
+      <c r="A294" s="55" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="65" t="s">
+      <c r="A295" s="55" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="65" t="s">
+      <c r="A296" s="55" t="s">
         <v>272</v>
       </c>
     </row>
@@ -6357,17 +6392,17 @@
       <c r="A297" s="36"/>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="65" t="s">
+      <c r="A298" s="55" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="65" t="s">
+      <c r="A299" s="55" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="65" t="s">
+      <c r="A300" s="55" t="s">
         <v>275</v>
       </c>
     </row>
@@ -6375,62 +6410,62 @@
       <c r="A301" s="36"/>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="65" t="s">
+      <c r="A302" s="55" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="65" t="s">
+      <c r="A303" s="55" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="65" t="s">
+      <c r="A304" s="55" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="65" t="s">
+      <c r="A305" s="55" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="65" t="s">
+      <c r="A306" s="55" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="65" t="s">
+      <c r="A307" s="55" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="65" t="s">
+      <c r="A308" s="55" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="65" t="s">
+      <c r="A309" s="55" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="65" t="s">
+      <c r="A310" s="55" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="65" t="s">
+      <c r="A311" s="55" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="65" t="s">
+      <c r="A312" s="55" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="65" t="s">
+      <c r="A313" s="55" t="s">
         <v>287</v>
       </c>
     </row>
@@ -6438,37 +6473,37 @@
       <c r="A314" s="36"/>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="65" t="s">
+      <c r="A315" s="55" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="65" t="s">
+      <c r="A316" s="55" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" s="65" t="s">
+      <c r="A317" s="55" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="65" t="s">
+      <c r="A318" s="55" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="65" t="s">
+      <c r="A319" s="55" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" s="65" t="s">
+      <c r="A320" s="55" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="321" spans="1:1">
-      <c r="A321" s="65" t="s">
+      <c r="A321" s="55" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6476,52 +6511,52 @@
       <c r="A322" s="36"/>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" s="65" t="s">
+      <c r="A323" s="55" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="324" spans="1:1">
-      <c r="A324" s="65" t="s">
+      <c r="A324" s="55" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" s="65" t="s">
+      <c r="A325" s="55" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" s="65" t="s">
+      <c r="A326" s="55" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="327" spans="1:1">
-      <c r="A327" s="65" t="s">
+      <c r="A327" s="55" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="65" t="s">
+      <c r="A328" s="55" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="329" spans="1:1">
-      <c r="A329" s="65" t="s">
+      <c r="A329" s="55" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="65" t="s">
+      <c r="A330" s="55" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="331" spans="1:1">
-      <c r="A331" s="65" t="s">
+      <c r="A331" s="55" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="332" spans="1:1">
-      <c r="A332" s="65" t="s">
+      <c r="A332" s="55" t="s">
         <v>304</v>
       </c>
     </row>
@@ -6529,37 +6564,37 @@
       <c r="A333" s="36"/>
     </row>
     <row r="334" spans="1:1">
-      <c r="A334" s="65" t="s">
+      <c r="A334" s="55" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="335" spans="1:1">
-      <c r="A335" s="65" t="s">
+      <c r="A335" s="55" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336" s="65" t="s">
+      <c r="A336" s="55" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="65" t="s">
+      <c r="A337" s="55" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="65" t="s">
+      <c r="A338" s="55" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="339" spans="1:1">
-      <c r="A339" s="65" t="s">
+      <c r="A339" s="55" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" s="65" t="s">
+      <c r="A340" s="55" t="s">
         <v>311</v>
       </c>
     </row>
@@ -6567,27 +6602,27 @@
       <c r="A341" s="36"/>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="65" t="s">
+      <c r="A342" s="55" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="343" spans="1:1">
-      <c r="A343" s="65" t="s">
+      <c r="A343" s="55" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" s="65" t="s">
+      <c r="A344" s="55" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="345" spans="1:1">
-      <c r="A345" s="65" t="s">
+      <c r="A345" s="55" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="346" spans="1:1">
-      <c r="A346" s="65" t="s">
+      <c r="A346" s="55" t="s">
         <v>316</v>
       </c>
     </row>
@@ -6595,7 +6630,7 @@
       <c r="A347" s="36"/>
     </row>
     <row r="348" spans="1:1">
-      <c r="A348" s="65" t="s">
+      <c r="A348" s="55" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6603,42 +6638,42 @@
       <c r="A349" s="36"/>
     </row>
     <row r="350" spans="1:1">
-      <c r="A350" s="65" t="s">
+      <c r="A350" s="55" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" s="65" t="s">
+      <c r="A351" s="55" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="352" spans="1:1">
-      <c r="A352" s="65" t="s">
+      <c r="A352" s="55" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="353" spans="1:1">
-      <c r="A353" s="65" t="s">
+      <c r="A353" s="55" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="65" t="s">
+      <c r="A354" s="55" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="355" spans="1:1">
-      <c r="A355" s="65" t="s">
+      <c r="A355" s="55" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="356" spans="1:1">
-      <c r="A356" s="65" t="s">
+      <c r="A356" s="55" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="357" spans="1:1">
-      <c r="A357" s="65" t="s">
+      <c r="A357" s="55" t="s">
         <v>325</v>
       </c>
     </row>
@@ -6646,32 +6681,32 @@
       <c r="A358" s="36"/>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" s="65" t="s">
+      <c r="A359" s="55" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="360" spans="1:1">
-      <c r="A360" s="65" t="s">
+      <c r="A360" s="55" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" s="65" t="s">
+      <c r="A361" s="55" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="362" spans="1:1">
-      <c r="A362" s="65" t="s">
+      <c r="A362" s="55" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" s="65" t="s">
+      <c r="A363" s="55" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="364" spans="1:1">
-      <c r="A364" s="65" t="s">
+      <c r="A364" s="55" t="s">
         <v>331</v>
       </c>
     </row>
@@ -6679,17 +6714,17 @@
       <c r="A365" s="36"/>
     </row>
     <row r="366" spans="1:1">
-      <c r="A366" s="65" t="s">
+      <c r="A366" s="55" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="367" spans="1:1">
-      <c r="A367" s="65" t="s">
+      <c r="A367" s="55" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="368" spans="1:1">
-      <c r="A368" s="65" t="s">
+      <c r="A368" s="55" t="s">
         <v>334</v>
       </c>
     </row>
@@ -6697,12 +6732,12 @@
       <c r="A369" s="36"/>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="65" t="s">
+      <c r="A370" s="55" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="371" spans="1:1">
-      <c r="A371" s="65" t="s">
+      <c r="A371" s="55" t="s">
         <v>336</v>
       </c>
     </row>
@@ -6710,17 +6745,17 @@
       <c r="A372" s="36"/>
     </row>
     <row r="373" spans="1:1">
-      <c r="A373" s="65" t="s">
+      <c r="A373" s="55" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="374" spans="1:1">
-      <c r="A374" s="65" t="s">
+      <c r="A374" s="55" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="375" spans="1:1">
-      <c r="A375" s="65" t="s">
+      <c r="A375" s="55" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6728,17 +6763,17 @@
       <c r="A376" s="36"/>
     </row>
     <row r="377" spans="1:1">
-      <c r="A377" s="65" t="s">
+      <c r="A377" s="55" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="378" spans="1:1">
-      <c r="A378" s="65" t="s">
+      <c r="A378" s="55" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="379" spans="1:1">
-      <c r="A379" s="65" t="s">
+      <c r="A379" s="55" t="s">
         <v>342</v>
       </c>
     </row>
@@ -6746,12 +6781,12 @@
       <c r="A380" s="36"/>
     </row>
     <row r="381" spans="1:1">
-      <c r="A381" s="65" t="s">
+      <c r="A381" s="55" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="382" spans="1:1">
-      <c r="A382" s="65" t="s">
+      <c r="A382" s="55" t="s">
         <v>344</v>
       </c>
     </row>
@@ -6759,12 +6794,12 @@
       <c r="A383" s="36"/>
     </row>
     <row r="384" spans="1:1">
-      <c r="A384" s="65" t="s">
+      <c r="A384" s="55" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="385" spans="1:1">
-      <c r="A385" s="65" t="s">
+      <c r="A385" s="55" t="s">
         <v>346</v>
       </c>
     </row>
@@ -6772,27 +6807,27 @@
       <c r="A386" s="36"/>
     </row>
     <row r="387" spans="1:1">
-      <c r="A387" s="65" t="s">
+      <c r="A387" s="55" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="388" spans="1:1">
-      <c r="A388" s="65" t="s">
+      <c r="A388" s="55" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="389" spans="1:1">
-      <c r="A389" s="65" t="s">
+      <c r="A389" s="55" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="390" spans="1:1">
-      <c r="A390" s="65" t="s">
+      <c r="A390" s="55" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="391" spans="1:1">
-      <c r="A391" s="65" t="s">
+      <c r="A391" s="55" t="s">
         <v>351</v>
       </c>
     </row>
@@ -6800,47 +6835,47 @@
       <c r="A392" s="36"/>
     </row>
     <row r="393" spans="1:1">
-      <c r="A393" s="65" t="s">
+      <c r="A393" s="55" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="394" spans="1:1">
-      <c r="A394" s="65" t="s">
+      <c r="A394" s="55" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="395" spans="1:1">
-      <c r="A395" s="65" t="s">
+      <c r="A395" s="55" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="396" spans="1:1">
-      <c r="A396" s="65" t="s">
+      <c r="A396" s="55" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="397" spans="1:1">
-      <c r="A397" s="65" t="s">
+      <c r="A397" s="55" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="398" spans="1:1">
-      <c r="A398" s="65" t="s">
+      <c r="A398" s="55" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="399" spans="1:1">
-      <c r="A399" s="65" t="s">
+      <c r="A399" s="55" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="400" spans="1:1">
-      <c r="A400" s="65" t="s">
+      <c r="A400" s="55" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401" s="65" t="s">
+      <c r="A401" s="55" t="s">
         <v>360</v>
       </c>
     </row>
@@ -6848,22 +6883,22 @@
       <c r="A402" s="36"/>
     </row>
     <row r="403" spans="1:1">
-      <c r="A403" s="65" t="s">
+      <c r="A403" s="55" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="404" spans="1:1">
-      <c r="A404" s="65" t="s">
+      <c r="A404" s="55" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="405" spans="1:1">
-      <c r="A405" s="65" t="s">
+      <c r="A405" s="55" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="406" spans="1:1">
-      <c r="A406" s="65" t="s">
+      <c r="A406" s="55" t="s">
         <v>364</v>
       </c>
     </row>
@@ -6871,17 +6906,17 @@
       <c r="A407" s="36"/>
     </row>
     <row r="408" spans="1:1">
-      <c r="A408" s="65" t="s">
+      <c r="A408" s="55" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="409" spans="1:1">
-      <c r="A409" s="65" t="s">
+      <c r="A409" s="55" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="410" spans="1:1">
-      <c r="A410" s="65" t="s">
+      <c r="A410" s="55" t="s">
         <v>367</v>
       </c>
     </row>
@@ -6889,7 +6924,7 @@
       <c r="A411" s="36"/>
     </row>
     <row r="412" spans="1:1">
-      <c r="A412" s="65" t="s">
+      <c r="A412" s="55" t="s">
         <v>368</v>
       </c>
     </row>
@@ -6897,27 +6932,27 @@
       <c r="A413" s="36"/>
     </row>
     <row r="414" spans="1:1">
-      <c r="A414" s="65" t="s">
+      <c r="A414" s="55" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="415" spans="1:1">
-      <c r="A415" s="65" t="s">
+      <c r="A415" s="55" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="416" spans="1:1">
-      <c r="A416" s="65" t="s">
+      <c r="A416" s="55" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="417" spans="1:1">
-      <c r="A417" s="65" t="s">
+      <c r="A417" s="55" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="418" spans="1:1">
-      <c r="A418" s="65" t="s">
+      <c r="A418" s="55" t="s">
         <v>373</v>
       </c>
     </row>
@@ -6925,32 +6960,32 @@
       <c r="A419" s="36"/>
     </row>
     <row r="420" spans="1:1">
-      <c r="A420" s="65" t="s">
+      <c r="A420" s="55" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="421" spans="1:1">
-      <c r="A421" s="65" t="s">
+      <c r="A421" s="55" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="422" spans="1:1">
-      <c r="A422" s="65" t="s">
+      <c r="A422" s="55" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="423" spans="1:1">
-      <c r="A423" s="65" t="s">
+      <c r="A423" s="55" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="424" spans="1:1">
-      <c r="A424" s="65" t="s">
+      <c r="A424" s="55" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="425" spans="1:1">
-      <c r="A425" s="65" t="s">
+      <c r="A425" s="55" t="s">
         <v>379</v>
       </c>
     </row>
@@ -6958,32 +6993,32 @@
       <c r="A426" s="36"/>
     </row>
     <row r="427" spans="1:1">
-      <c r="A427" s="65" t="s">
+      <c r="A427" s="55" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="428" spans="1:1">
-      <c r="A428" s="65" t="s">
+      <c r="A428" s="55" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="429" spans="1:1">
-      <c r="A429" s="65" t="s">
+      <c r="A429" s="55" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="430" spans="1:1">
-      <c r="A430" s="65" t="s">
+      <c r="A430" s="55" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="431" spans="1:1">
-      <c r="A431" s="65" t="s">
+      <c r="A431" s="55" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="432" spans="1:1">
-      <c r="A432" s="65" t="s">
+      <c r="A432" s="55" t="s">
         <v>385</v>
       </c>
     </row>
@@ -6991,27 +7026,27 @@
       <c r="A433" s="36"/>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434" s="65" t="s">
+      <c r="A434" s="55" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="435" spans="1:1">
-      <c r="A435" s="65" t="s">
+      <c r="A435" s="55" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="436" spans="1:1">
-      <c r="A436" s="65" t="s">
+      <c r="A436" s="55" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="437" spans="1:1">
-      <c r="A437" s="65" t="s">
+      <c r="A437" s="55" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="438" spans="1:1">
-      <c r="A438" s="65" t="s">
+      <c r="A438" s="55" t="s">
         <v>390</v>
       </c>
     </row>
@@ -7019,7 +7054,7 @@
       <c r="A439" s="36"/>
     </row>
     <row r="440" spans="1:1">
-      <c r="A440" s="65" t="s">
+      <c r="A440" s="55" t="s">
         <v>391</v>
       </c>
     </row>
@@ -7027,42 +7062,42 @@
       <c r="A441" s="36"/>
     </row>
     <row r="442" spans="1:1">
-      <c r="A442" s="65" t="s">
+      <c r="A442" s="55" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="443" spans="1:1">
-      <c r="A443" s="65" t="s">
+      <c r="A443" s="55" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="444" spans="1:1">
-      <c r="A444" s="65" t="s">
+      <c r="A444" s="55" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="445" spans="1:1">
-      <c r="A445" s="65" t="s">
+      <c r="A445" s="55" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="446" spans="1:1">
-      <c r="A446" s="65" t="s">
+      <c r="A446" s="55" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="447" spans="1:1">
-      <c r="A447" s="65" t="s">
+      <c r="A447" s="55" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="448" spans="1:1">
-      <c r="A448" s="65" t="s">
+      <c r="A448" s="55" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="449" spans="1:1">
-      <c r="A449" s="65" t="s">
+      <c r="A449" s="55" t="s">
         <v>399</v>
       </c>
     </row>
@@ -7070,7 +7105,7 @@
       <c r="A450" s="36"/>
     </row>
     <row r="451" spans="1:1">
-      <c r="A451" s="65" t="s">
+      <c r="A451" s="55" t="s">
         <v>400</v>
       </c>
     </row>
@@ -7078,22 +7113,22 @@
       <c r="A452" s="36"/>
     </row>
     <row r="453" spans="1:1">
-      <c r="A453" s="65" t="s">
+      <c r="A453" s="55" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="454" spans="1:1">
-      <c r="A454" s="65" t="s">
+      <c r="A454" s="55" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="455" spans="1:1">
-      <c r="A455" s="65" t="s">
+      <c r="A455" s="55" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="456" spans="1:1">
-      <c r="A456" s="65" t="s">
+      <c r="A456" s="55" t="s">
         <v>404</v>
       </c>
     </row>
@@ -7101,47 +7136,47 @@
       <c r="A457" s="36"/>
     </row>
     <row r="458" spans="1:1">
-      <c r="A458" s="65" t="s">
+      <c r="A458" s="55" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="459" spans="1:1">
-      <c r="A459" s="65" t="s">
+      <c r="A459" s="55" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="460" spans="1:1">
-      <c r="A460" s="65" t="s">
+      <c r="A460" s="55" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="461" spans="1:1">
-      <c r="A461" s="65" t="s">
+      <c r="A461" s="55" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="462" spans="1:1">
-      <c r="A462" s="65" t="s">
+      <c r="A462" s="55" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="463" spans="1:1">
-      <c r="A463" s="65" t="s">
+      <c r="A463" s="55" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="464" spans="1:1">
-      <c r="A464" s="65" t="s">
+      <c r="A464" s="55" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="465" spans="1:1">
-      <c r="A465" s="65" t="s">
+      <c r="A465" s="55" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="466" spans="1:1">
-      <c r="A466" s="65" t="s">
+      <c r="A466" s="55" t="s">
         <v>413</v>
       </c>
     </row>
@@ -7149,37 +7184,37 @@
       <c r="A467" s="36"/>
     </row>
     <row r="468" spans="1:1">
-      <c r="A468" s="65" t="s">
+      <c r="A468" s="55" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="469" spans="1:1">
-      <c r="A469" s="65" t="s">
+      <c r="A469" s="55" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="470" spans="1:1">
-      <c r="A470" s="65" t="s">
+      <c r="A470" s="55" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="471" spans="1:1">
-      <c r="A471" s="65" t="s">
+      <c r="A471" s="55" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="472" spans="1:1">
-      <c r="A472" s="65" t="s">
+      <c r="A472" s="55" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="473" spans="1:1">
-      <c r="A473" s="65" t="s">
+      <c r="A473" s="55" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="474" spans="1:1">
-      <c r="A474" s="65" t="s">
+      <c r="A474" s="55" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7187,7 +7222,7 @@
       <c r="A475" s="36"/>
     </row>
     <row r="476" spans="1:1">
-      <c r="A476" s="65" t="s">
+      <c r="A476" s="55" t="s">
         <v>421</v>
       </c>
     </row>
@@ -7195,17 +7230,17 @@
       <c r="A477" s="36"/>
     </row>
     <row r="478" spans="1:1">
-      <c r="A478" s="65" t="s">
+      <c r="A478" s="55" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="479" spans="1:1">
-      <c r="A479" s="65" t="s">
+      <c r="A479" s="55" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="480" spans="1:1">
-      <c r="A480" s="65" t="s">
+      <c r="A480" s="55" t="s">
         <v>424</v>
       </c>
     </row>
@@ -7213,47 +7248,47 @@
       <c r="A481" s="36"/>
     </row>
     <row r="482" spans="1:1">
-      <c r="A482" s="65" t="s">
+      <c r="A482" s="55" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="483" spans="1:1">
-      <c r="A483" s="65" t="s">
+      <c r="A483" s="55" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="484" spans="1:1">
-      <c r="A484" s="65" t="s">
+      <c r="A484" s="55" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="485" spans="1:1">
-      <c r="A485" s="65" t="s">
+      <c r="A485" s="55" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="486" spans="1:1">
-      <c r="A486" s="65" t="s">
+      <c r="A486" s="55" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="487" spans="1:1">
-      <c r="A487" s="65" t="s">
+      <c r="A487" s="55" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="488" spans="1:1">
-      <c r="A488" s="65" t="s">
+      <c r="A488" s="55" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="489" spans="1:1">
-      <c r="A489" s="65" t="s">
+      <c r="A489" s="55" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="490" spans="1:1">
-      <c r="A490" s="65" t="s">
+      <c r="A490" s="55" t="s">
         <v>433</v>
       </c>
     </row>
@@ -7261,22 +7296,22 @@
       <c r="A491" s="36"/>
     </row>
     <row r="492" spans="1:1">
-      <c r="A492" s="65" t="s">
+      <c r="A492" s="55" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="493" spans="1:1">
-      <c r="A493" s="65" t="s">
+      <c r="A493" s="55" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="494" spans="1:1">
-      <c r="A494" s="65" t="s">
+      <c r="A494" s="55" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="495" spans="1:1">
-      <c r="A495" s="65" t="s">
+      <c r="A495" s="55" t="s">
         <v>437</v>
       </c>
     </row>
@@ -7284,32 +7319,32 @@
       <c r="A496" s="36"/>
     </row>
     <row r="497" spans="1:1">
-      <c r="A497" s="65" t="s">
+      <c r="A497" s="55" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="498" spans="1:1">
-      <c r="A498" s="65" t="s">
+      <c r="A498" s="55" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="499" spans="1:1">
-      <c r="A499" s="65" t="s">
+      <c r="A499" s="55" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="500" spans="1:1">
-      <c r="A500" s="65" t="s">
+      <c r="A500" s="55" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="501" spans="1:1">
-      <c r="A501" s="65" t="s">
+      <c r="A501" s="55" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="502" spans="1:1">
-      <c r="A502" s="65" t="s">
+      <c r="A502" s="55" t="s">
         <v>443</v>
       </c>
     </row>
@@ -7317,67 +7352,67 @@
       <c r="A503" s="36"/>
     </row>
     <row r="504" spans="1:1">
-      <c r="A504" s="65" t="s">
+      <c r="A504" s="55" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="505" spans="1:1">
-      <c r="A505" s="65" t="s">
+      <c r="A505" s="55" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="506" spans="1:1">
-      <c r="A506" s="65" t="s">
+      <c r="A506" s="55" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="507" spans="1:1">
-      <c r="A507" s="65" t="s">
+      <c r="A507" s="55" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="508" spans="1:1">
-      <c r="A508" s="65" t="s">
+      <c r="A508" s="55" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="509" spans="1:1">
-      <c r="A509" s="65" t="s">
+      <c r="A509" s="55" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="510" spans="1:1">
-      <c r="A510" s="65" t="s">
+      <c r="A510" s="55" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="511" spans="1:1">
-      <c r="A511" s="65" t="s">
+      <c r="A511" s="55" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="512" spans="1:1">
-      <c r="A512" s="65" t="s">
+      <c r="A512" s="55" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="513" spans="1:1">
-      <c r="A513" s="65" t="s">
+      <c r="A513" s="55" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="514" spans="1:1">
-      <c r="A514" s="65" t="s">
+      <c r="A514" s="55" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="515" spans="1:1">
-      <c r="A515" s="65" t="s">
+      <c r="A515" s="55" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="516" spans="1:1">
-      <c r="A516" s="65" t="s">
+      <c r="A516" s="55" t="s">
         <v>456</v>
       </c>
     </row>
@@ -7385,37 +7420,37 @@
       <c r="A517" s="36"/>
     </row>
     <row r="518" spans="1:1">
-      <c r="A518" s="65" t="s">
+      <c r="A518" s="55" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="519" spans="1:1">
-      <c r="A519" s="65" t="s">
+      <c r="A519" s="55" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="520" spans="1:1">
-      <c r="A520" s="65" t="s">
+      <c r="A520" s="55" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="521" spans="1:1">
-      <c r="A521" s="65" t="s">
+      <c r="A521" s="55" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="522" spans="1:1">
-      <c r="A522" s="65" t="s">
+      <c r="A522" s="55" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="523" spans="1:1">
-      <c r="A523" s="65" t="s">
+      <c r="A523" s="55" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="524" spans="1:1">
-      <c r="A524" s="65" t="s">
+      <c r="A524" s="55" t="s">
         <v>463</v>
       </c>
     </row>
@@ -7423,72 +7458,72 @@
       <c r="A525" s="36"/>
     </row>
     <row r="526" spans="1:1">
-      <c r="A526" s="65" t="s">
+      <c r="A526" s="55" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="527" spans="1:1">
-      <c r="A527" s="65" t="s">
+      <c r="A527" s="55" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="528" spans="1:1">
-      <c r="A528" s="65" t="s">
+      <c r="A528" s="55" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="529" spans="1:1">
-      <c r="A529" s="65" t="s">
+      <c r="A529" s="55" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="530" spans="1:1">
-      <c r="A530" s="65" t="s">
+      <c r="A530" s="55" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="531" spans="1:1">
-      <c r="A531" s="65" t="s">
+      <c r="A531" s="55" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="532" spans="1:1">
-      <c r="A532" s="65" t="s">
+      <c r="A532" s="55" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="533" spans="1:1">
-      <c r="A533" s="65" t="s">
+      <c r="A533" s="55" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="534" spans="1:1">
-      <c r="A534" s="65" t="s">
+      <c r="A534" s="55" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="535" spans="1:1">
-      <c r="A535" s="65" t="s">
+      <c r="A535" s="55" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="536" spans="1:1">
-      <c r="A536" s="65" t="s">
+      <c r="A536" s="55" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="537" spans="1:1">
-      <c r="A537" s="65" t="s">
+      <c r="A537" s="55" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="538" spans="1:1">
-      <c r="A538" s="65" t="s">
+      <c r="A538" s="55" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="539" spans="1:1">
-      <c r="A539" s="65" t="s">
+      <c r="A539" s="55" t="s">
         <v>477</v>
       </c>
     </row>
@@ -7496,17 +7531,17 @@
       <c r="A540" s="36"/>
     </row>
     <row r="541" spans="1:1">
-      <c r="A541" s="65" t="s">
+      <c r="A541" s="55" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="542" spans="1:1">
-      <c r="A542" s="65" t="s">
+      <c r="A542" s="55" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="543" spans="1:1">
-      <c r="A543" s="65" t="s">
+      <c r="A543" s="55" t="s">
         <v>480</v>
       </c>
     </row>
@@ -7514,7 +7549,7 @@
       <c r="A544" s="36"/>
     </row>
     <row r="545" spans="1:1">
-      <c r="A545" s="65" t="s">
+      <c r="A545" s="55" t="s">
         <v>481</v>
       </c>
     </row>
@@ -7522,47 +7557,47 @@
       <c r="A546" s="36"/>
     </row>
     <row r="547" spans="1:1">
-      <c r="A547" s="65" t="s">
+      <c r="A547" s="55" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="548" spans="1:1">
-      <c r="A548" s="65" t="s">
+      <c r="A548" s="55" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="549" spans="1:1">
-      <c r="A549" s="65" t="s">
+      <c r="A549" s="55" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="550" spans="1:1">
-      <c r="A550" s="65" t="s">
+      <c r="A550" s="55" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="551" spans="1:1">
-      <c r="A551" s="65" t="s">
+      <c r="A551" s="55" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="552" spans="1:1">
-      <c r="A552" s="65" t="s">
+      <c r="A552" s="55" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="553" spans="1:1">
-      <c r="A553" s="65" t="s">
+      <c r="A553" s="55" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="554" spans="1:1">
-      <c r="A554" s="65" t="s">
+      <c r="A554" s="55" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="555" spans="1:1">
-      <c r="A555" s="65" t="s">
+      <c r="A555" s="55" t="s">
         <v>490</v>
       </c>
     </row>
@@ -7570,7 +7605,7 @@
       <c r="A556" s="36"/>
     </row>
     <row r="557" spans="1:1">
-      <c r="A557" s="65" t="s">
+      <c r="A557" s="55" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7578,42 +7613,42 @@
       <c r="A558" s="36"/>
     </row>
     <row r="559" spans="1:1">
-      <c r="A559" s="65" t="s">
+      <c r="A559" s="55" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="560" spans="1:1">
-      <c r="A560" s="65" t="s">
+      <c r="A560" s="55" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="561" spans="1:1">
-      <c r="A561" s="65" t="s">
+      <c r="A561" s="55" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="562" spans="1:1">
-      <c r="A562" s="65" t="s">
+      <c r="A562" s="55" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="563" spans="1:1">
-      <c r="A563" s="65" t="s">
+      <c r="A563" s="55" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="564" spans="1:1">
-      <c r="A564" s="65" t="s">
+      <c r="A564" s="55" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="565" spans="1:1">
-      <c r="A565" s="65" t="s">
+      <c r="A565" s="55" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="566" spans="1:1">
-      <c r="A566" s="65" t="s">
+      <c r="A566" s="55" t="s">
         <v>499</v>
       </c>
     </row>
@@ -7621,7 +7656,7 @@
       <c r="A567" s="36"/>
     </row>
     <row r="568" spans="1:1">
-      <c r="A568" s="65" t="s">
+      <c r="A568" s="55" t="s">
         <v>500</v>
       </c>
     </row>
@@ -7629,22 +7664,22 @@
       <c r="A569" s="36"/>
     </row>
     <row r="570" spans="1:1">
-      <c r="A570" s="65" t="s">
+      <c r="A570" s="55" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="571" spans="1:1">
-      <c r="A571" s="65" t="s">
+      <c r="A571" s="55" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="572" spans="1:1">
-      <c r="A572" s="65" t="s">
+      <c r="A572" s="55" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="573" spans="1:1">
-      <c r="A573" s="65" t="s">
+      <c r="A573" s="55" t="s">
         <v>504</v>
       </c>
     </row>
@@ -7652,42 +7687,42 @@
       <c r="A574" s="36"/>
     </row>
     <row r="575" spans="1:1">
-      <c r="A575" s="65" t="s">
+      <c r="A575" s="55" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="576" spans="1:1">
-      <c r="A576" s="65" t="s">
+      <c r="A576" s="55" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="577" spans="1:1">
-      <c r="A577" s="65" t="s">
+      <c r="A577" s="55" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="578" spans="1:1">
-      <c r="A578" s="65" t="s">
+      <c r="A578" s="55" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="579" spans="1:1">
-      <c r="A579" s="65" t="s">
+      <c r="A579" s="55" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="580" spans="1:1">
-      <c r="A580" s="65" t="s">
+      <c r="A580" s="55" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="581" spans="1:1">
-      <c r="A581" s="65" t="s">
+      <c r="A581" s="55" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="582" spans="1:1">
-      <c r="A582" s="65" t="s">
+      <c r="A582" s="55" t="s">
         <v>512</v>
       </c>
     </row>
@@ -7695,22 +7730,22 @@
       <c r="A583" s="36"/>
     </row>
     <row r="584" spans="1:1">
-      <c r="A584" s="65" t="s">
+      <c r="A584" s="55" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="585" spans="1:1">
-      <c r="A585" s="65" t="s">
+      <c r="A585" s="55" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="586" spans="1:1">
-      <c r="A586" s="65" t="s">
+      <c r="A586" s="55" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="587" spans="1:1">
-      <c r="A587" s="65" t="s">
+      <c r="A587" s="55" t="s">
         <v>516</v>
       </c>
     </row>
@@ -7718,22 +7753,22 @@
       <c r="A588" s="36"/>
     </row>
     <row r="589" spans="1:1">
-      <c r="A589" s="65" t="s">
+      <c r="A589" s="55" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="590" spans="1:1">
-      <c r="A590" s="65" t="s">
+      <c r="A590" s="55" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="591" spans="1:1">
-      <c r="A591" s="65" t="s">
+      <c r="A591" s="55" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="592" spans="1:1">
-      <c r="A592" s="65" t="s">
+      <c r="A592" s="55" t="s">
         <v>520</v>
       </c>
     </row>
@@ -7741,7 +7776,7 @@
       <c r="A593" s="36"/>
     </row>
     <row r="594" spans="1:1">
-      <c r="A594" s="65" t="s">
+      <c r="A594" s="55" t="s">
         <v>521</v>
       </c>
     </row>
@@ -7749,42 +7784,42 @@
       <c r="A595" s="36"/>
     </row>
     <row r="596" spans="1:1">
-      <c r="A596" s="65" t="s">
+      <c r="A596" s="55" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="597" spans="1:1">
-      <c r="A597" s="65" t="s">
+      <c r="A597" s="55" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="598" spans="1:1">
-      <c r="A598" s="65" t="s">
+      <c r="A598" s="55" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="599" spans="1:1">
-      <c r="A599" s="65" t="s">
+      <c r="A599" s="55" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="600" spans="1:1">
-      <c r="A600" s="65" t="s">
+      <c r="A600" s="55" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="601" spans="1:1">
-      <c r="A601" s="65" t="s">
+      <c r="A601" s="55" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="602" spans="1:1">
-      <c r="A602" s="65" t="s">
+      <c r="A602" s="55" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="603" spans="1:1">
-      <c r="A603" s="65" t="s">
+      <c r="A603" s="55" t="s">
         <v>529</v>
       </c>
     </row>
@@ -7792,7 +7827,7 @@
       <c r="A604" s="36"/>
     </row>
     <row r="605" spans="1:1">
-      <c r="A605" s="65" t="s">
+      <c r="A605" s="55" t="s">
         <v>530</v>
       </c>
     </row>
@@ -7800,47 +7835,47 @@
       <c r="A606" s="36"/>
     </row>
     <row r="607" spans="1:1">
-      <c r="A607" s="65" t="s">
+      <c r="A607" s="55" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="608" spans="1:1">
-      <c r="A608" s="65" t="s">
+      <c r="A608" s="55" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="609" spans="1:1">
-      <c r="A609" s="65" t="s">
+      <c r="A609" s="55" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="610" spans="1:1">
-      <c r="A610" s="65" t="s">
+      <c r="A610" s="55" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="611" spans="1:1">
-      <c r="A611" s="65" t="s">
+      <c r="A611" s="55" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="612" spans="1:1">
-      <c r="A612" s="65" t="s">
+      <c r="A612" s="55" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="613" spans="1:1">
-      <c r="A613" s="65" t="s">
+      <c r="A613" s="55" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="614" spans="1:1">
-      <c r="A614" s="65" t="s">
+      <c r="A614" s="55" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="615" spans="1:1">
-      <c r="A615" s="65" t="s">
+      <c r="A615" s="55" t="s">
         <v>539</v>
       </c>
     </row>
@@ -7848,7 +7883,7 @@
       <c r="A616" s="36"/>
     </row>
     <row r="617" spans="1:1">
-      <c r="A617" s="65" t="s">
+      <c r="A617" s="55" t="s">
         <v>540</v>
       </c>
     </row>
@@ -7856,32 +7891,32 @@
       <c r="A618" s="36"/>
     </row>
     <row r="619" spans="1:1">
-      <c r="A619" s="65" t="s">
+      <c r="A619" s="55" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="65" t="s">
+      <c r="A620" s="55" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="621" spans="1:1">
-      <c r="A621" s="65" t="s">
+      <c r="A621" s="55" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="65" t="s">
+      <c r="A622" s="55" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="623" spans="1:1">
-      <c r="A623" s="65" t="s">
+      <c r="A623" s="55" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="65" t="s">
+      <c r="A624" s="55" t="s">
         <v>546</v>
       </c>
     </row>
@@ -7889,7 +7924,7 @@
       <c r="A625" s="36"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="65" t="s">
+      <c r="A626" s="55" t="s">
         <v>547</v>
       </c>
     </row>
@@ -7897,7 +7932,7 @@
       <c r="A627" s="36"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="65" t="s">
+      <c r="A628" s="55" t="s">
         <v>548</v>
       </c>
     </row>
@@ -7905,17 +7940,17 @@
       <c r="A629" s="36"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="65" t="s">
+      <c r="A630" s="55" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="631" spans="1:1">
-      <c r="A631" s="65" t="s">
+      <c r="A631" s="55" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="65" t="s">
+      <c r="A632" s="55" t="s">
         <v>551</v>
       </c>
     </row>
@@ -7923,22 +7958,22 @@
       <c r="A633" s="36"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="65" t="s">
+      <c r="A634" s="55" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="635" spans="1:1">
-      <c r="A635" s="65" t="s">
+      <c r="A635" s="55" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="65" t="s">
+      <c r="A636" s="55" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="637" spans="1:1">
-      <c r="A637" s="65" t="s">
+      <c r="A637" s="55" t="s">
         <v>555</v>
       </c>
     </row>
@@ -7946,12 +7981,12 @@
       <c r="A638" s="36"/>
     </row>
     <row r="639" spans="1:1">
-      <c r="A639" s="65" t="s">
+      <c r="A639" s="55" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="65" t="s">
+      <c r="A640" s="55" t="s">
         <v>557</v>
       </c>
     </row>
@@ -7959,22 +7994,22 @@
       <c r="A641" s="36"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="65" t="s">
+      <c r="A642" s="55" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="643" spans="1:1">
-      <c r="A643" s="65" t="s">
+      <c r="A643" s="55" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="65" t="s">
+      <c r="A644" s="55" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="645" spans="1:1">
-      <c r="A645" s="65" t="s">
+      <c r="A645" s="55" t="s">
         <v>561</v>
       </c>
     </row>
@@ -7982,22 +8017,22 @@
       <c r="A646" s="36"/>
     </row>
     <row r="647" spans="1:1">
-      <c r="A647" s="65" t="s">
+      <c r="A647" s="55" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="65" t="s">
+      <c r="A648" s="55" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="649" spans="1:1">
-      <c r="A649" s="65" t="s">
+      <c r="A649" s="55" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="65" t="s">
+      <c r="A650" s="55" t="s">
         <v>565</v>
       </c>
     </row>
@@ -8005,12 +8040,12 @@
       <c r="A651" s="36"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="65" t="s">
+      <c r="A652" s="55" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="653" spans="1:1">
-      <c r="A653" s="65" t="s">
+      <c r="A653" s="55" t="s">
         <v>567</v>
       </c>
     </row>
@@ -8018,7 +8053,7 @@
       <c r="A654" s="36"/>
     </row>
     <row r="655" spans="1:1">
-      <c r="A655" s="65" t="s">
+      <c r="A655" s="55" t="s">
         <v>568</v>
       </c>
     </row>
@@ -8026,12 +8061,12 @@
       <c r="A656" s="36"/>
     </row>
     <row r="657" spans="1:1">
-      <c r="A657" s="65" t="s">
+      <c r="A657" s="55" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="65" t="s">
+      <c r="A658" s="55" t="s">
         <v>570</v>
       </c>
     </row>
@@ -8039,22 +8074,22 @@
       <c r="A659" s="36"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="65" t="s">
+      <c r="A660" s="55" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="661" spans="1:1">
-      <c r="A661" s="65" t="s">
+      <c r="A661" s="55" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="65" t="s">
+      <c r="A662" s="55" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="663" spans="1:1">
-      <c r="A663" s="65" t="s">
+      <c r="A663" s="55" t="s">
         <v>574</v>
       </c>
     </row>
@@ -8062,17 +8097,17 @@
       <c r="A664" s="36"/>
     </row>
     <row r="665" spans="1:1">
-      <c r="A665" s="65" t="s">
+      <c r="A665" s="55" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="65" t="s">
+      <c r="A666" s="55" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="667" spans="1:1">
-      <c r="A667" s="65" t="s">
+      <c r="A667" s="55" t="s">
         <v>577</v>
       </c>
     </row>
@@ -8080,22 +8115,22 @@
       <c r="A668" s="36"/>
     </row>
     <row r="669" spans="1:1">
-      <c r="A669" s="65" t="s">
+      <c r="A669" s="55" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="65" t="s">
+      <c r="A670" s="55" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="671" spans="1:1">
-      <c r="A671" s="65" t="s">
+      <c r="A671" s="55" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="65" t="s">
+      <c r="A672" s="55" t="s">
         <v>581</v>
       </c>
     </row>
@@ -8103,32 +8138,32 @@
       <c r="A673" s="36"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="65" t="s">
+      <c r="A674" s="55" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="675" spans="1:1">
-      <c r="A675" s="65" t="s">
+      <c r="A675" s="55" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="65" t="s">
+      <c r="A676" s="55" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="677" spans="1:1">
-      <c r="A677" s="65" t="s">
+      <c r="A677" s="55" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="65" t="s">
+      <c r="A678" s="55" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="679" spans="1:1">
-      <c r="A679" s="65" t="s">
+      <c r="A679" s="55" t="s">
         <v>587</v>
       </c>
     </row>
